--- a/Practice file/Individuals of rock-pigeons.xlsx
+++ b/Practice file/Individuals of rock-pigeons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scientific works\NBICT\RDSML-B-8-NBICT\Practice file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16E08F2-E819-4249-9BB3-DB66374AE360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA2F4D-EC79-4E01-BA35-A3803A6DDD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{909A2022-943D-4C19-8084-6DC5C35B704E}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Sites</t>
   </si>
   <si>
-    <t>Rock-pigeons</t>
-  </si>
-  <si>
     <t>Kushtia</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Bongah</t>
+  </si>
+  <si>
+    <t>Rock_pigeons</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,12 +438,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>105</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>80</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>205</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>90</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>35</v>
